--- a/docs/examples/read_write.xlsx
+++ b/docs/examples/read_write.xlsx
@@ -39,7 +39,7 @@
     <t>The second sheet</t>
   </si>
   <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. In euismod, sem eu posuere vestibulum, lacus nulla faucibus sem, quis ultricies mi ante quis velit. </t>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. In euismod, sem eu.</t>
   </si>
 </sst>
 </file>
@@ -58,15 +58,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+    </font>
+    <font/>
+    <font>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
     </font>
     <font>
       <color rgb="FF777777"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="20"/>
     </font>
   </fonts>
   <fills count="3">
@@ -93,33 +93,33 @@
   </borders>
   <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="3">
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Header" xfId="1"/>
-    <cellStyle hidden="0" name="Description" xfId="2"/>
-    <cellStyle hidden="0" name="Row" xfId="3"/>
-    <cellStyle hidden="0" name="Row, integer" xfId="4"/>
-    <cellStyle hidden="0" name="Title" xfId="5"/>
+    <cellStyle hidden="0" name="Title" xfId="1"/>
+    <cellStyle hidden="0" name="Row" xfId="2"/>
+    <cellStyle hidden="0" name="Row, integer" xfId="3"/>
+    <cellStyle hidden="0" name="Header" xfId="4"/>
+    <cellStyle hidden="0" name="Description" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
